--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560351/JX560351_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560351/JX560351_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89318819658</v>
+        <v>45441.83345247785</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1996g&gt;a']</t>
+          <t>['1845_1864instagacttatagttttcact', '1819_1857insgttcgatatattcagtctgggaagctagaaaaaacgaa', '1963_2046insacaagatcatcaatggggcttgtgtgctacacgcccaaaaagtacgtgtacaaagcgttctaattcaacacatgtaagaggta', '1828_1923del', '1833_1865del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89318821974</v>
+        <v>45441.83345250679</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['699_702del']</t>
+          <t>['686_766del', '688_711del', '685_709instgtattaccggcataggaggcgcc', '650_737inscaccacagtgagactgggtacacggttattaggaactgtcgactcccatgcattggtcgtgtttcccatgtggcttatatggttccc', '687_737inscgttacttgcgcgtccattgggtatcgagaggatcgaatggatcctgact']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931882429</v>
+        <v>45441.83345253587</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3604_3605del']</t>
+          <t>['3659_3716del', '3582_3687del', '3645_3673del', '3610_3699del', '3639_3747del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89318837517</v>
+        <v>45441.83345266886</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['2001c&gt;t']</t>
+          <t>['1867_1998instatggggttcccctccacctatcgaagcctgcggaacgcaaatcggtatattgatccgcgcggggagggcatctacggcgctcggacgaggcaaagccactctggtaccttaatttcgacggacctgcatc', '1827_1937insatcggtcatgtagttatggcatccacatagcctggcgagatgaaaggggggagcccccgggtttttttcatgatccgcacttcgagctctcccgcatacggtctacgtcg', '1840_1988del', '1861_1987insccgtttgtcatttcacatcaccaacacataacttaccgtttatcttaatcattattttatctcattttgcctgataacttgaaatccgtgagtgtggacccggcgccaggatgttagtattttccg', '2022_2078insgtttctactccgatgaggacctgactacagcgattatattggactgtgtgcgaaca']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['684_685inst']</t>
+          <t>['638_698del', '638_737del', '625_668del', '614_703del', '639_651inscgggaaatgcgt']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89318840412</v>
+        <v>45441.833452692</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1872_1876insttca']</t>
+          <t>['1945_2007del', '1957_2048del', '2016_2134insgagcgcctgattccagaatttattgccgacgtgttgtaactgtcatacgagacctaaggatcgatacggatttcagtagctactcctagtagacggaaagtcaatgggccgatgcttg', '1904_2002del', '1900_2018del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3585a&gt;g']</t>
+          <t>['3577_3640del', '3650_3787insacgtcggccaagcgctaacggagataatgggttgagtatacggagttaccattcggttccagtctaatcagttaccccggaactaagaatacgggctggcattgagccgagcgagccatggtcggctacaatacttt', '3612_3682insaagatatcctgcatctacggtcgtatacgtccgcagcgctaccactaaactcgatactgatcaggggtcg', '3658_3703del', '3614_3711del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89318843304</v>
+        <v>45441.83345271515</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['605_609instcag']</t>
+          <t>['677_722del', '660_711insccaaggggcatctagcacgattgcggctttgataagcggtcgtgtgttcgg', '620_706insgggtttgacgctacagaagtgaatccttcagtctaaacttggacactcaggacttttcggccttcttagcaatgccgtttttcata', '672_684del', '699_800instaatgatcgaatcatatacccagcttaacacgaaggttctggggtagaagagagaatatttcgctgtcttatggcattgataccgggccccagtaaactcc']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3582_3587insctatg']</t>
+          <t>['3628_3719del', '3623_3639del', '3599_3664insagtgattcatgataacatgcctgcggaaaattaggtatcgatgtataatcttgcgcgttggtata', '3599_3642inscaatggctcacttcggatgcagacgccgtagggtgactgactc', '3645_3769inscaaggcagttcgttagctcaggaggtgtgcttgacaattacgatggcagagaaatgcatcggtggtgagcaggctctcgccatagtcccaacgcaatatttccctggtctgggcagataacggg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89318845041</v>
+        <v>45441.8334527383</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1907_1911del']</t>
+          <t>['1923_2048instaccttatttgacctggctcttttccctatgctctggctccagctatgatattgttgatgcaccaagtgtcaagaagcgttcggtcggaatgttcccaacggggtattagtagatgaacacccag', '1846_1880del', '2019_2137del', '1828_1844del', '1951_2003del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['612t&gt;c']</t>
+          <t>['691_814instttatggacggggtggtcggcctttgtagcgagcttgtgtacggtgcttaagcaaggtgcatagggtttatggcagtgccgtgattactggaccctgacgagtggggagcccaaatatagcgt', '605_661instaagctctcggtatttcttcagtctcccactacagacgggaacctaaatcaccgtc', '700_788del', '671_755insatcgtattaagccaataacgcacaagtgtcaagaggttaccctccggtttagaactgtaatcaattcgctgttgccacaagaga', '685_717insacgtgcgttctatgttaaatttgtggggagtt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3672_3673insc']</t>
+          <t>['3655_3676insgaagttccccgcaatttcagc', '3662_3779instgttttcgcaactagggaagcaagcagcctatcccgtaacgacacgcatggctaaacgatgagaggagcaagaccctacgtttggtcctcttttccatcacggagttgcaatggtat', '3609_3756del', '3666_3695insgagtgtcctatgttacaacgtcgcaggta', '3638_3663insgaaagtgaattcagccctcgccctg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89318847354</v>
+        <v>45441.83345275568</v>
       </c>
     </row>
   </sheetData>
